--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Apple</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>TV</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,6 +408,14 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
